--- a/数据整理/stocks/A股/科创板/688019-安集科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688019-安集科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000522</t>
+          <t>519674</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华润元大信息传媒科技混合</t>
+          <t>银河创新成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>80.50</t>
+          <t>184.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.4499</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519674</t>
+          <t>000522</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银河创新成长混合</t>
+          <t>华润元大信息传媒科技混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.99</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2381</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -558,15 +588,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>68.31</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.57</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -581,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +642,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +672,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009882</t>
+          <t>506003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华润元大核心动力混合A</t>
+          <t>富国科创板两年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>75.36</t>
+          <t>24.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1255</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -650,26 +710,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009883</t>
+          <t>000522</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华润元大核心动力混合C</t>
+          <t>华润元大信息传媒科技混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>75.36</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>79.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1495</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -678,26 +748,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000522</t>
+          <t>009882</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华润元大信息传媒科技混合</t>
+          <t>华润元大核心动力混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>79.16</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.36</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -706,26 +786,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>506003</t>
+          <t>009883</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富国科创板两年定期开放混合</t>
+          <t>华润元大核心动力混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.44</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688019-安集科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688019-安集科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9894</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3116</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8955</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000601</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝创新优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8334</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000124</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝服务优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3314</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2492</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688019-安集科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688019-安集科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1258,4 +1259,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1472</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9932</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3599</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688019-安集科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688019-安集科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1505,4 +1506,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688019-安集科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688019-安集科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1514,7 +1515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1525,17 +1526,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1545,14 +1566,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.59</v>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4160</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1561,14 +1604,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.7</v>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4616</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1577,14 +1642,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.31</v>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1533</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1593,13 +1680,645 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4758</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2197</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1333</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012661</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012662</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>7.7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688019-安集科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688019-安集科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2217,7 +2218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2228,17 +2229,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2248,14 +2269,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6.42</v>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5151</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2264,14 +2307,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.59</v>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2826</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2280,14 +2345,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.7</v>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1945</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2296,14 +2383,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.31</v>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9229</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -2312,13 +2421,1307 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5426</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011486</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5013</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5011</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008949</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4290</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4159</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004745</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长盛创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4000</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3861</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3416</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2195</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012556</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长盛景气优选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>47.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1881</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>30.94</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1532</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1265</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011175</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>38.80</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0701</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>30.94</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010539</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>34.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011487</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008950</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010540</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浙商智多金稳健一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>34.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011176</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>平安恒鑫混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.50</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009671</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>平安恒泽混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009882</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>68.63</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009672</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>平安恒泽混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009883</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华润元大核心动力混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>68.63</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.949999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>7.7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688019-安集科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688019-安集科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3604,7 +3605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3615,17 +3616,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3635,14 +3656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>35</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.949999999999999</v>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2284</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -3651,14 +3694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.42</v>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0589</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3667,14 +3732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.59</v>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8084</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3683,14 +3770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.7</v>
+          <t>008949</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6233</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3699,14 +3808,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.31</v>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4764</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -3715,13 +3846,1361 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4615</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4286</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002669</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商万众创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4260</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3509</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011486</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3370</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3189</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2313</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2102</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1892</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1869</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012029</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发恒鑫一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>19.21</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>29.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1748</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1704</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1467</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012661</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.08</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008950</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002604</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011487</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011369</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011370</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华商均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012030</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发恒鑫一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>29.90</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002838</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏新锦程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002839</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏新锦程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012662</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发恒益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>29.08</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014085</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008213</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>35</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.949999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>7.7</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688019-安集科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688019-安集科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="D2" t="n">
-        <v>8.4</v>
+        <v>19.91</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>9.949999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>6.42</v>
+        <v>9.949999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>2.59</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>5.7</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>1.31</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>7.7</v>
       </c>
     </row>
@@ -600,6 +617,2490 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000404</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8922</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>48.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6908</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4545</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010391</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3108</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2799</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009808</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达创新成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2270</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9720</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8770</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>31.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8384</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014855</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实中证半导体指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7934</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>33.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7894</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7046</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010013</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达信息行业精选股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5859</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007177</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4807</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>96.80</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4508</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008949</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4214</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4212</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3915</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2513</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006049</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合A/B</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2460</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2338</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010876</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浙商智选先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1784</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007192</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>恒越研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1671</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.76</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1569</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1557</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009353</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001188</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华改革红利股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1157</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>77.42</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009354</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浙商科技创新一个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1045</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010392</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>易方达战略新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014854</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实中证半导体指数增强A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014085</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>78.76</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014651</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>大成专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>60.59</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>015373</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>浙商智选新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014193</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008950</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>平安匠心优选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007217</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>浙商智能行业优选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010877</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>浙商智选先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>014194</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>015374</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>浙商智选新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014417</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>泰康研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>85.50</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002085</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长盛互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>83.56</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014652</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>大成专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>60.59</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006887</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>诺德新生活混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>562520</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华夏中证智选1000成长创新策略ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>96.91</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>015937</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>014416</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>泰康研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>82.84</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>016401</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2061,7 +4562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3447,7 +5948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4149,7 +6650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4395,7 +6896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4831,7 +7332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5039,7 +7540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688019-安集科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688019-安集科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>19.91</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="D3" t="n">
-        <v>8.4</v>
+        <v>19.91</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4" t="n">
-        <v>9.949999999999999</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>6.42</v>
+        <v>9.949999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>2.59</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>5.7</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>1.31</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>3</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>7.7</v>
       </c>
     </row>
@@ -616,7 +633,1749 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>184.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.4499</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2381</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>68.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9608</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014855</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实中证半导体指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9029</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时科创板三年定开混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8848</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城电子信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3086</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2654</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>506001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家科创板 2 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2441</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2362</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010552</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1617</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014062</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城专精特新量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010876</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商智选先锋一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1396</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014418</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014419</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1013</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0911</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014854</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实中证半导体指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014063</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城专精特新量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>166801</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014651</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>68.74</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014232</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时专精特新主题混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>80.89</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014233</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时专精特新主题混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.87</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014831</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴银中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010877</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浙商智选先锋一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001682</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>新华鑫回报混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010553</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商智选领航三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014832</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>兴银中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014652</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>68.74</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>77.72</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>77.72</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001535</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>43.79</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007945</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>43.79</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012268</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014085</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>浙商聚潮新思维混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>77.34</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012269</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>浙商智多享稳健混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3100,7 +4859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4562,7 +6321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5948,7 +7707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6650,7 +8409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6896,7 +8655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7332,7 +9091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7538,174 +9297,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519674</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银河创新成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>184.86</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.99</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>7.4499</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000522</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华润元大信息传媒科技混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>80.50</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2381</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002292</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>诺安益鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>68.31</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0165</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>